--- a/smartMeter/sourceData2/bus5U1.xlsx
+++ b/smartMeter/sourceData2/bus5U1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="221">
   <si>
     <t>当前表型:国网表</t>
   </si>
@@ -679,9 +679,6 @@
   </si>
   <si>
     <t>2015/10/27 16:44:32</t>
-  </si>
-  <si>
-    <t>2015/10/27 16:44:37</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:G199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -4375,21 +4374,8 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198">
-        <v>710498</v>
-      </c>
-      <c r="B198">
-        <v>131009003274</v>
-      </c>
-      <c r="C198" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
